--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44076C68-0B13-654C-A2C9-C5805F440BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9E5E8-5EAB-8446-A173-5D11ADEB0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24520" yWindow="500" windowWidth="25220" windowHeight="28300" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -73,9 +73,6 @@
     <t>kg CO2-eq</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>H2SO4</t>
   </si>
   <si>
@@ -304,12 +301,6 @@
     <t>this is for liquid, however, the value has minimal impact on the results</t>
   </si>
   <si>
-    <t>heat production, natural gas, at industrial furnace &gt;100kW</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, natural gas, 1MW electrical, lean burn</t>
-  </si>
-  <si>
     <t>48.5 MJ/kg (https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels, accessed 07-31-2024)</t>
   </si>
   <si>
@@ -374,6 +365,9 @@
   </si>
   <si>
     <t>ecoinvent 3.8, cutoff, TRACI</t>
+  </si>
+  <si>
+    <t>market for heat, district or industrial, natural gas</t>
   </si>
 </sst>
 </file>
@@ -458,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,9 +470,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,7 +791,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,13 +805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="A1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -830,604 +821,604 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>111</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1444,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,34 +1474,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
         <v>1.26</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="2">
         <f t="shared" ref="D2:D8" si="0">C2*0.9</f>
         <v>1.1340000000000001</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="2">
         <f t="shared" ref="E2:E8" si="1">C2*1.1</f>
         <v>1.3860000000000001</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>109</v>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1536,7 +1527,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1561,7 +1552,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1586,7 +1577,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1611,7 +1602,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1636,7 +1627,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1661,7 +1652,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1686,7 +1677,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1712,7 +1703,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1737,7 +1728,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1762,7 +1753,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1787,7 +1778,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1812,7 +1803,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -1837,7 +1828,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1863,7 +1854,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1889,22 +1880,22 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <f>0.026653427*48.5</f>
-        <v>1.2926912095</v>
+        <f>0.050399856*48.5</f>
+        <v>2.4443930159999998</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D38" si="6">C18*0.9</f>
-        <v>1.1634220885500002</v>
+        <v>2.1999537143999999</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E38" si="7">C18*1.1</f>
-        <v>1.4219603304500001</v>
+        <v>2.6888323176000002</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1918,7 +1909,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1944,7 +1935,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1971,22 +1962,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>471.10484135821974</v>
+        <v>471.09893696226777</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="6"/>
-        <v>423.99435722239775</v>
+        <v>423.98904326604099</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="7"/>
-        <v>518.21532549404174</v>
+        <v>518.20883065849455</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -1998,22 +1989,22 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>5.9884408658522883</v>
+        <v>5.9473882820744883</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="6"/>
-        <v>5.3895967792670598</v>
+        <v>5.3526494538670395</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="7"/>
-        <v>6.5872849524375177</v>
+        <v>6.5421271102819381</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -2025,7 +2016,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -2050,7 +2041,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -2075,7 +2066,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -2100,7 +2091,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2126,7 +2117,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -2151,7 +2142,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -2176,7 +2167,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2201,7 +2192,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2227,7 +2218,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -2253,7 +2244,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -2279,7 +2270,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -2305,7 +2296,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -2330,7 +2321,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -2356,21 +2347,21 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>6.9324202000000001E-2</v>
+        <v>5.0399856E-2</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="6"/>
-        <v>6.2391781800000004E-2</v>
+        <v>4.5359870400000002E-2</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="7"/>
-        <v>7.6256622200000013E-2</v>
+        <v>5.5439841600000005E-2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -2381,7 +2372,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -2406,7 +2397,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -2431,7 +2422,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -2456,7 +2447,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -2481,7 +2472,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>

--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9E5E8-5EAB-8446-A173-5D11ADEB0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A962D2B3-7AB0-F14C-B67C-1220A0ED3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -121,9 +121,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>market for ammonium sulfate</t>
-  </si>
-  <si>
     <t>RoW</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>market group for electricity, high voltage</t>
   </si>
   <si>
-    <t>high voltage</t>
-  </si>
-  <si>
     <t>market for phosphoric acid, industrial grade, without water, in 85% solution state</t>
   </si>
   <si>
@@ -368,6 +362,9 @@
   </si>
   <si>
     <t>market for heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>ammonium sulfate production</t>
   </si>
 </sst>
 </file>
@@ -790,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -832,47 +829,47 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -880,13 +877,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -894,13 +891,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -908,13 +905,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -922,13 +919,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -936,13 +933,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -956,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1018,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -1032,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -1040,146 +1037,143 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -1187,13 +1181,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -1201,13 +1195,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>23</v>
@@ -1215,13 +1209,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>23</v>
@@ -1229,7 +1223,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1246,27 +1240,27 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>23</v>
@@ -1274,13 +1268,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>23</v>
@@ -1288,16 +1282,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
@@ -1305,30 +1299,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>23</v>
@@ -1336,86 +1330,83 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>23</v>
@@ -1435,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1467,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1496,12 +1487,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1527,7 +1518,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1552,7 +1543,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1577,7 +1568,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1602,7 +1593,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1627,7 +1618,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1652,7 +1643,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1828,7 +1819,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1854,21 +1845,21 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.1391192999999999</v>
+        <v>-1.1139067</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="4"/>
-        <v>-1.02520737</v>
+        <v>-1.00251603</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="5"/>
-        <v>-1.2530312299999999</v>
+        <v>-1.2252973700000001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -1880,7 +1871,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1909,7 +1900,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1935,7 +1926,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1962,7 +1953,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1989,7 +1980,7 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -2016,7 +2007,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -2041,7 +2032,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -2066,7 +2057,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -2091,7 +2082,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2117,7 +2108,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -2142,7 +2133,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -2167,7 +2158,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2192,7 +2183,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2218,7 +2209,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -2244,7 +2235,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -2270,7 +2261,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -2296,7 +2287,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -2321,7 +2312,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -2347,7 +2338,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -2372,7 +2363,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -2397,7 +2388,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -2422,7 +2413,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -2447,7 +2438,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -2472,7 +2463,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>

--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A962D2B3-7AB0-F14C-B67C-1220A0ED3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074703A-1583-5340-BA7A-8C71699672CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>Napatha</t>
   </si>
   <si>
-    <t>ton*km</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>market for molybdenum trioxide</t>
   </si>
   <si>
-    <t>market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%</t>
-  </si>
-  <si>
     <t>calculated based on Snowden-Swan et al. 2016 Life cycle greenhouse gas emissions analysis of catalysts for hydrotreating of fast pyrolysis bio-oil</t>
   </si>
   <si>
@@ -365,6 +359,12 @@
   </si>
   <si>
     <t>ammonium sulfate production</t>
+  </si>
+  <si>
+    <t>metric ton*km</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry, unspecified</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -829,47 +829,47 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>52</v>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -1046,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -1060,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1074,13 +1074,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,10 +1091,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1162,7 +1162,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -1249,7 +1249,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
@@ -1308,10 +1308,10 @@
         <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,10 +1336,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1364,10 +1364,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1381,18 +1381,18 @@
         <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>28</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>23</v>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1487,12 +1487,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -2438,21 +2438,21 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>0.12772243</v>
+        <v>0.13004958</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="10">C40*0.9</f>
-        <v>0.114950187</v>
+        <v>0.117044622</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="11">C40*1.1</f>
-        <v>0.14049467300000001</v>
+        <v>0.14305453800000001</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>

--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074703A-1583-5340-BA7A-8C71699672CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052D84D-EC79-1F48-BA76-5EC83F3EAB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052D84D-EC79-1F48-BA76-5EC83F3EAB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD31CB-CE7A-664D-88DA-2CEEA4DD7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -289,9 +289,6 @@
     <t>this is for liquid, however, the value has minimal impact on the results</t>
   </si>
   <si>
-    <t>48.5 MJ/kg (https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels, accessed 07-31-2024)</t>
-  </si>
-  <si>
     <t>Furnace</t>
   </si>
   <si>
@@ -365,6 +362,15 @@
   </si>
   <si>
     <t>market for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>market for inert waste, for final disposal</t>
+  </si>
+  <si>
+    <t>50 MJ/kg (https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels, accessed 2024-07-31)</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,6 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -785,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -829,47 +836,47 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -877,13 +884,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -891,13 +898,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -905,13 +912,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -919,13 +926,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -933,7 +940,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1060,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>75</v>
@@ -1074,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,7 +1343,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>82</v>
@@ -1389,10 +1396,10 @@
         <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>28</v>
@@ -1410,6 +1417,20 @@
       </c>
       <c r="D42" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1448,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1436,13 +1457,14 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1465,9 +1487,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1487,12 +1509,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1516,9 +1538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1541,9 +1563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1566,9 +1588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1591,9 +1613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1616,9 +1638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1641,9 +1663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1666,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1692,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1817,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1869,7 +1891,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -1877,16 +1899,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <f>0.050399856*48.5</f>
-        <v>2.4443930159999998</v>
+        <f>0.050399856*50</f>
+        <v>2.5199927999999998</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D38" si="6">C18*0.9</f>
-        <v>2.1999537143999999</v>
+        <v>2.2679935200000001</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E38" si="7">C18*1.1</f>
-        <v>2.6888323176000002</v>
+        <v>2.77199208</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1898,7 +1920,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1924,7 +1946,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1948,10 +1970,10 @@
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="16"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1978,7 +2000,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2027,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -2055,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2080,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -2106,7 +2128,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2156,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -2207,7 +2229,7 @@
       </c>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +2255,7 @@
       </c>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2259,7 +2281,7 @@
       </c>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -2285,7 +2307,7 @@
       </c>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2310,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2358,7 @@
       </c>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -2361,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -2386,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
@@ -2411,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -2436,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -2461,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -2472,17 +2494,42 @@
         <v>0.22290007000000001</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41" si="12">C41*0.9</f>
+        <f t="shared" ref="D41:D42" si="12">C41*0.9</f>
         <v>0.20061006300000001</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="13">C41*1.1</f>
+        <f t="shared" ref="E41:E42" si="13">C41*1.1</f>
         <v>0.24519007700000003</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8.2744841E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4470356900000001E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="13"/>
+        <v>9.1019325100000006E-3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
+++ b/exposan/htl/data/geo_impact_items_master_database_08012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD31CB-CE7A-664D-88DA-2CEEA4DD7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18ACBD-B9D6-B641-AE59-05411961FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="23300" yWindow="1600" windowWidth="26400" windowHeight="26860" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="113">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>50 MJ/kg (https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels, accessed 2024-07-31)</t>
+  </si>
+  <si>
+    <t>including empty return trips</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,13 +812,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -969,7 +972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -983,7 +986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1118,33 +1121,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1404,8 +1407,11 @@
       <c r="D41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -1433,6 +1439,10 @@
         <v>28</v>
       </c>
     </row>
+    <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C22:E22"/>
@@ -1447,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +1980,7 @@
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="14"/>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
